--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="19140" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15590" windowHeight="1920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -84,7 +85,7 @@
     <t>nothing</t>
   </si>
   <si>
-    <t>gayatri@gmail.com</t>
+    <t>gayatri@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -437,7 +438,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
